--- a/Motorola One.xlsx
+++ b/Motorola One.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/h.t/Desktop/Projeto-2-class/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0215B10-09F6-CE45-B2B6-7795E00DD85B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26B56E0-CB35-8241-B176-909F41383525}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Treinamento!$A$1:$B$279</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2013,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView topLeftCell="A260" zoomScale="231" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:XFD177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3433,13 +3435,16 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
       <c r="B177">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3447,55 +3452,55 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3503,15 +3508,15 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -3519,23 +3524,23 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3543,15 +3548,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3559,23 +3564,23 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3583,7 +3588,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -3591,15 +3596,15 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -3607,15 +3612,15 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -3623,7 +3628,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3631,7 +3636,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -3639,7 +3644,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3647,15 +3652,15 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -3663,15 +3668,15 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3679,7 +3684,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3687,39 +3692,39 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3727,7 +3732,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -3735,7 +3740,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3743,15 +3748,15 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -3759,15 +3764,15 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3775,7 +3780,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3783,7 +3788,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3791,7 +3796,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3799,7 +3804,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3807,7 +3812,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -3815,7 +3820,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3823,7 +3828,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -3831,7 +3836,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3839,7 +3844,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3847,23 +3852,23 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3871,7 +3876,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -3879,23 +3884,23 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3903,7 +3908,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -3911,23 +3916,23 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -3935,7 +3940,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -3943,7 +3948,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3951,7 +3956,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -3959,7 +3964,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3967,7 +3972,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3975,7 +3980,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -3983,15 +3988,15 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -3999,7 +4004,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -4007,15 +4012,15 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -4023,7 +4028,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -4031,7 +4036,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -4039,7 +4044,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4047,7 +4052,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -4055,7 +4060,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -4063,7 +4068,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4071,7 +4076,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4079,7 +4084,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4087,23 +4092,23 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -4111,7 +4116,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -4119,39 +4124,39 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -4159,7 +4164,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -4167,7 +4172,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -4175,7 +4180,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -4183,23 +4188,23 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>270</v>
+      <c r="A272" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="B272">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>271</v>
+      <c r="A273" t="s">
+        <v>272</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -4207,7 +4212,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -4215,7 +4220,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -4223,7 +4228,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -4231,7 +4236,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -4239,31 +4244,24 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>278</v>
-      </c>
-      <c r="B280">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B279" xr:uid="{9DF3F468-21FD-3749-BB74-DB4523A08754}"/>
   <hyperlinks>
-    <hyperlink ref="A273" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A272" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4271,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B204"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="400" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4635,13 +4633,16 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>323</v>
+      </c>
       <c r="B45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4649,7 +4650,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4657,15 +4658,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4673,15 +4674,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4689,7 +4690,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4697,7 +4698,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -4713,23 +4714,23 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -4737,7 +4738,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4745,7 +4746,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -4753,23 +4754,23 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4777,7 +4778,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -4785,7 +4786,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -4793,7 +4794,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -4801,7 +4802,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -4809,7 +4810,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -4817,7 +4818,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -4825,15 +4826,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4841,15 +4842,15 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -4857,7 +4858,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -4865,7 +4866,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -4873,15 +4874,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4889,15 +4890,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -4905,7 +4906,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4913,7 +4914,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -4921,7 +4922,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4929,7 +4930,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -4937,39 +4938,39 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -4977,7 +4978,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -4985,7 +4986,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4993,7 +4994,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -5001,7 +5002,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -5009,7 +5010,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -5017,7 +5018,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -5025,7 +5026,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -5033,7 +5034,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -5041,7 +5042,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -5049,7 +5050,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -5057,7 +5058,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -5065,7 +5066,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5073,31 +5074,31 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -5105,15 +5106,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -5121,7 +5122,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -5129,15 +5130,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>113</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>385</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -5145,7 +5146,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -5153,7 +5154,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -5161,15 +5162,15 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -5177,7 +5178,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -5193,7 +5194,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -5201,7 +5202,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -5209,7 +5210,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -5217,7 +5218,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -5225,7 +5226,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -5233,7 +5234,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -5241,7 +5242,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -5249,7 +5250,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -5257,7 +5258,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5265,7 +5266,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -5273,7 +5274,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5281,7 +5282,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5289,7 +5290,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -5297,7 +5298,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -5305,7 +5306,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -5313,7 +5314,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -5321,7 +5322,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -5329,7 +5330,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -5337,7 +5338,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -5345,7 +5346,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -5353,7 +5354,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -5361,31 +5362,31 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5393,15 +5394,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5409,15 +5410,15 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5425,15 +5426,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5441,7 +5442,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -5449,23 +5450,23 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>425</v>
+        <v>66</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5473,7 +5474,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -5481,23 +5482,23 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5505,7 +5506,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5513,7 +5514,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5521,7 +5522,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5529,7 +5530,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5537,7 +5538,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5545,15 +5546,15 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5561,31 +5562,31 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5593,7 +5594,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5601,7 +5602,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5609,7 +5610,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5617,7 +5618,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -5633,7 +5634,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5641,7 +5642,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -5649,7 +5650,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -5657,23 +5658,23 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -5681,23 +5682,23 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5705,7 +5706,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -5713,7 +5714,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -5721,7 +5722,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -5729,7 +5730,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -5737,7 +5738,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -5745,23 +5746,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -5769,7 +5770,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -5777,7 +5778,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5785,7 +5786,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -5793,7 +5794,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5801,7 +5802,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -5809,7 +5810,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -5817,15 +5818,15 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>469</v>
+        <v>252</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5833,15 +5834,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>470</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -5849,7 +5850,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -5857,7 +5858,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -5865,7 +5866,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -5873,7 +5874,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5881,23 +5882,23 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -5905,17 +5906,9 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>479</v>
-      </c>
-      <c r="B205">
         <v>0</v>
       </c>
     </row>
